--- a/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
+++ b/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
@@ -19,9 +19,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="87">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="103">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市永和區永平段08810000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市民德段05670000地號</t>
+  </si>
+  <si>
+    <t>10000分之297</t>
+  </si>
+  <si>
+    <t>10000分之108</t>
+  </si>
+  <si>
+    <t>蕭美琴</t>
+  </si>
+  <si>
+    <t>91年2月</t>
+  </si>
+  <si>
+    <t>99年7月</t>
+  </si>
+  <si>
+    <t>(自用）</t>
+  </si>
+  <si>
+    <t>(自用)</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpcd9a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,52 +126,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市永和區永平段0881 -0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市民德段0567-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 297</t>
-  </si>
-  <si>
-    <t>10000分之 108</t>
-  </si>
-  <si>
-    <t>蕭美琴</t>
-  </si>
-  <si>
-    <t>91年2月</t>
-  </si>
-  <si>
-    <t>99年7月</t>
-  </si>
-  <si>
-    <t>(自用）</t>
-  </si>
-  <si>
-    <t>(自用)</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市永和區永平段04827-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永平段04990-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永平段04995-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永平段04978-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區永平段04996-000 建號</t>
+    <t>新北市永和區永平段04827000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永平段04990000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永平段04995000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永平段04978000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區永平段04996000建號</t>
   </si>
   <si>
     <t>花蓮縣花蓮市民德里民德四街</t>
@@ -96,10 +147,10 @@
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 228</t>
-  </si>
-  <si>
-    <t>10000分之 31</t>
+    <t>10000分之228</t>
+  </si>
+  <si>
+    <t>10000分之31</t>
   </si>
   <si>
     <t>333分之9</t>
@@ -144,7 +195,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行襄陽分 行</t>
+    <t>台北富邦商業銀行襄陽分行</t>
   </si>
   <si>
     <t>玉山商業銀行雙和分行</t>
@@ -195,34 +246,34 @@
     <t>JPMF歐兀區</t>
   </si>
   <si>
-    <t>富達新興市場基 金</t>
-  </si>
-  <si>
-    <t>富達印度聚焦基 金</t>
-  </si>
-  <si>
-    <t>貝萊德新能源基 金美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 基金美元</t>
-  </si>
-  <si>
-    <t>貝萊德新能源基 金歐元</t>
-  </si>
-  <si>
-    <t>富蘭坦頓全球債 券美元</t>
-  </si>
-  <si>
-    <t>施羅德環球新興 亞洲基金</t>
-  </si>
-  <si>
-    <t>富坦全球投資拉 丁美洲</t>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>富達印度聚焦基金</t>
+  </si>
+  <si>
+    <t>貝萊德新能源基金美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金美元</t>
+  </si>
+  <si>
+    <t>貝萊德新能源基金歐元</t>
+  </si>
+  <si>
+    <t>富蘭坦頓全球債券美元</t>
+  </si>
+  <si>
+    <t>施羅德環球新興亞洲基金</t>
+  </si>
+  <si>
+    <t>富坦全球投資拉丁美洲</t>
   </si>
   <si>
     <t>JF印度基金</t>
   </si>
   <si>
-    <t>摩根富林明新興 中東基金</t>
+    <t>摩根富林明新興中東基金</t>
   </si>
   <si>
     <t>富達太平洋基金</t>
@@ -231,16 +282,13 @@
     <t>國泰國泰基金</t>
   </si>
   <si>
-    <t>國泰科技生化基 金</t>
-  </si>
-  <si>
-    <t>Mutual Funds</t>
-  </si>
-  <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>台北•富邦商業 銀行</t>
+    <t>國泰科技生化基金</t>
+  </si>
+  <si>
+    <t>MutualFunds</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
   </si>
   <si>
     <t>玉山商業銀行</t>
@@ -249,7 +297,7 @@
     <t>臺灣土地銀行</t>
   </si>
   <si>
-    <t>Wells Fargo</t>
+    <t>WellsFargo</t>
   </si>
   <si>
     <t>歐元</t>
@@ -638,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,57 +714,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>5809.21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>981</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2710</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>2505000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>981</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -734,25 +845,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -760,25 +871,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>111.27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -786,25 +897,25 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>973.39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -812,25 +923,25 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>2909.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -838,25 +949,25 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>170.32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -864,25 +975,25 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>13201.12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -890,22 +1001,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>161.223</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
         <v>2505000</v>
@@ -926,22 +1037,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -949,22 +1060,22 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -972,19 +1083,19 @@
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
         <v>170000</v>
@@ -1005,22 +1116,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1028,16 +1139,16 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1049,16 +1160,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1070,16 +1181,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1091,16 +1202,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1112,16 +1223,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1133,16 +1244,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>6492.61</v>
@@ -1166,25 +1277,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1192,13 +1303,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>98.518</v>
@@ -1207,7 +1318,7 @@
         <v>14.74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2">
         <v>42751</v>
@@ -1218,13 +1329,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>13301.3</v>
@@ -1233,7 +1344,7 @@
         <v>4.39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>58393</v>
@@ -1244,13 +1355,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>44735.6</v>
@@ -1259,7 +1370,7 @@
         <v>39.18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2">
         <v>1752741</v>
@@ -1270,13 +1381,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>219.364</v>
@@ -1285,7 +1396,7 @@
         <v>6.59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2">
         <v>42559</v>
@@ -1296,13 +1407,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>1068.31</v>
@@ -1311,7 +1422,7 @@
         <v>20.56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2">
         <v>644217</v>
@@ -1322,13 +1433,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>158.78</v>
@@ -1337,7 +1448,7 @@
         <v>26.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2">
         <v>125134</v>
@@ -1348,13 +1459,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2">
         <v>2143.06</v>
@@ -1363,7 +1474,7 @@
         <v>6.35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2">
         <v>399135</v>
@@ -1374,13 +1485,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2">
         <v>67.54</v>
@@ -1389,7 +1500,7 @@
         <v>64.59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2">
         <v>127949</v>
@@ -1400,13 +1511,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
         <v>195.21</v>
@@ -1415,7 +1526,7 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2">
         <v>36309</v>
@@ -1426,13 +1537,13 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2">
         <v>195.395</v>
@@ -1441,7 +1552,7 @@
         <v>19.98</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2">
         <v>114504</v>
@@ -1452,13 +1563,13 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2">
         <v>252.63</v>
@@ -1467,7 +1578,7 @@
         <v>22.79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2">
         <v>168865</v>
@@ -1478,13 +1589,13 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2">
         <v>66.405</v>
@@ -1493,7 +1604,7 @@
         <v>77.75</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2">
         <v>152101</v>
@@ -1504,13 +1615,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2">
         <v>31.832</v>
@@ -1519,7 +1630,7 @@
         <v>175.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2">
         <v>164784</v>
@@ -1530,13 +1641,13 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2">
         <v>277.55</v>
@@ -1545,7 +1656,7 @@
         <v>20.38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2">
         <v>166639</v>
@@ -1556,13 +1667,13 @@
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2">
         <v>116.259</v>
@@ -1571,7 +1682,7 @@
         <v>20.21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2">
         <v>69218</v>
@@ -1582,13 +1693,13 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2">
         <v>201.18</v>
@@ -1597,7 +1708,7 @@
         <v>19.82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H17" s="2">
         <v>117468</v>
@@ -1608,13 +1719,13 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2">
         <v>6963.9</v>
@@ -1623,7 +1734,7 @@
         <v>12.36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H18" s="2">
         <v>86073</v>
@@ -1634,13 +1745,13 @@
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2">
         <v>6462.7</v>
@@ -1649,7 +1760,7 @@
         <v>22.28</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H19" s="2">
         <v>143988</v>
@@ -1660,18 +1771,18 @@
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2">
         <v>2904405</v>
@@ -1692,22 +1803,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1715,22 +1826,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>1111889</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1738,22 +1849,22 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>4182728</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
+++ b/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -63,72 +63,54 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市永和區永平段08810000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>花蓮縣花蓮市民德段05670000地號</t>
   </si>
   <si>
-    <t>10000分之297</t>
-  </si>
-  <si>
     <t>10000分之108</t>
   </si>
   <si>
     <t>蕭美琴</t>
   </si>
   <si>
+    <t>99年7月</t>
+  </si>
+  <si>
+    <t>(自用)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpcd9a1</t>
+  </si>
+  <si>
+    <t>新北市永和區永平段04827000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>91年2月</t>
   </si>
   <si>
-    <t>99年7月</t>
-  </si>
-  <si>
     <t>(自用）</t>
   </si>
   <si>
-    <t>(自用)</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpcd9a1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市永和區永平段04827000建號</t>
-  </si>
-  <si>
     <t>新北市永和區永平段04990000建號</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
     <t>花蓮縣花蓮市民德里民德四街</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>10000分之228</t>
   </si>
   <si>
@@ -159,15 +138,6 @@
     <t>(白用)</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>小客車TOYOTA</t>
   </si>
   <si>
@@ -177,24 +147,15 @@
     <t>99年</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行襄陽分行</t>
   </si>
   <si>
@@ -207,36 +168,18 @@
     <t>美商摩根大通銀行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>坦伯頓世界</t>
   </si>
   <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
     <t>富邦大中華</t>
   </si>
   <si>
@@ -288,9 +231,6 @@
     <t>MutualFunds</t>
   </si>
   <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
     <t>玉山商業銀行</t>
   </si>
   <si>
@@ -303,31 +243,16 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>貸款</t>
   </si>
   <si>
+    <t>91年4月</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
     <t>臺灣土地銀行花蓮分行</t>
-  </si>
-  <si>
-    <t>91年4月</t>
-  </si>
-  <si>
-    <t>房屋貸款</t>
   </si>
 </sst>
 </file>
@@ -686,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,19 +660,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5809.21</v>
+        <v>2710</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -756,19 +687,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2505000</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>18</v>
@@ -777,57 +708,16 @@
         <v>981</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2710</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2505000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>981</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2">
-        <v>14</v>
+      <c r="P2" s="2">
+        <v>0.0108</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>29.268</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,143 +735,143 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1">
+        <v>111.27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>973.39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
-        <v>111.27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2909.5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>973.39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
-        <v>2909.5</v>
+        <v>170.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
-        <v>170.32</v>
+        <v>13201.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
-        <v>13201.12</v>
+        <v>161.223</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -990,35 +880,9 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2">
-        <v>161.223</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
         <v>2505000</v>
       </c>
     </row>
@@ -1029,7 +893,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1037,30 +901,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1069,35 +933,12 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
         <v>170000</v>
       </c>
     </row>
@@ -1108,7 +949,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1116,149 +957,126 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2208108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>2208108</v>
+        <v>1927695</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1927695</v>
+        <v>315666</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>315666</v>
+        <v>667161</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>667161</v>
+        <v>107566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>6492.61</v>
+      </c>
       <c r="G6" s="2">
-        <v>107566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6492.61</v>
-      </c>
-      <c r="G7" s="2">
         <v>189920</v>
       </c>
     </row>
@@ -1269,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1277,514 +1095,488 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="E1" s="1">
+        <v>98.518</v>
+      </c>
+      <c r="F1" s="1">
+        <v>14.74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42751</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
-        <v>98.518</v>
+        <v>13301.3</v>
       </c>
       <c r="F2" s="2">
-        <v>14.74</v>
+        <v>4.39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2">
-        <v>42751</v>
+        <v>58393</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
-        <v>13301.3</v>
+        <v>44735.6</v>
       </c>
       <c r="F3" s="2">
-        <v>4.39</v>
+        <v>39.18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
-        <v>58393</v>
+        <v>1752741</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
-        <v>44735.6</v>
+        <v>219.364</v>
       </c>
       <c r="F4" s="2">
-        <v>39.18</v>
+        <v>6.59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <v>1752741</v>
+        <v>42559</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
-        <v>219.364</v>
+        <v>1068.31</v>
       </c>
       <c r="F5" s="2">
-        <v>6.59</v>
+        <v>20.56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
-        <v>42559</v>
+        <v>644217</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
-        <v>1068.31</v>
+        <v>158.78</v>
       </c>
       <c r="F6" s="2">
-        <v>20.56</v>
+        <v>26.87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <v>644217</v>
+        <v>125134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
-        <v>158.78</v>
+        <v>2143.06</v>
       </c>
       <c r="F7" s="2">
-        <v>26.87</v>
+        <v>6.35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
-        <v>125134</v>
+        <v>399135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2">
-        <v>2143.06</v>
+        <v>67.54</v>
       </c>
       <c r="F8" s="2">
-        <v>6.35</v>
+        <v>64.59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
-        <v>399135</v>
+        <v>127949</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2">
-        <v>67.54</v>
+        <v>195.21</v>
       </c>
       <c r="F9" s="2">
-        <v>64.59</v>
+        <v>4.8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2">
-        <v>127949</v>
+        <v>36309</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
-        <v>195.21</v>
+        <v>195.395</v>
       </c>
       <c r="F10" s="2">
-        <v>4.8</v>
+        <v>19.98</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2">
-        <v>36309</v>
+        <v>114504</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2">
-        <v>195.395</v>
+        <v>252.63</v>
       </c>
       <c r="F11" s="2">
-        <v>19.98</v>
+        <v>22.79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
-        <v>114504</v>
+        <v>168865</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2">
-        <v>252.63</v>
+        <v>66.405</v>
       </c>
       <c r="F12" s="2">
-        <v>22.79</v>
+        <v>77.75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2">
-        <v>168865</v>
+        <v>152101</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2">
-        <v>66.405</v>
+        <v>31.832</v>
       </c>
       <c r="F13" s="2">
-        <v>77.75</v>
+        <v>175.72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2">
-        <v>152101</v>
+        <v>164784</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2">
-        <v>31.832</v>
+        <v>277.55</v>
       </c>
       <c r="F14" s="2">
-        <v>175.72</v>
+        <v>20.38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2">
-        <v>164784</v>
+        <v>166639</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2">
-        <v>277.55</v>
+        <v>116.259</v>
       </c>
       <c r="F15" s="2">
-        <v>20.38</v>
+        <v>20.21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2">
-        <v>166639</v>
+        <v>69218</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2">
-        <v>116.259</v>
+        <v>201.18</v>
       </c>
       <c r="F16" s="2">
-        <v>20.21</v>
+        <v>19.82</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2">
-        <v>69218</v>
+        <v>117468</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2">
-        <v>201.18</v>
+        <v>6963.9</v>
       </c>
       <c r="F17" s="2">
-        <v>19.82</v>
+        <v>12.36</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2">
-        <v>117468</v>
+        <v>86073</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2">
-        <v>6963.9</v>
+        <v>6462.7</v>
       </c>
       <c r="F18" s="2">
-        <v>12.36</v>
+        <v>22.28</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H18" s="2">
-        <v>86073</v>
+        <v>143988</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="2">
-        <v>6462.7</v>
-      </c>
-      <c r="F19" s="2">
-        <v>22.28</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2">
-        <v>143988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>90</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="2">
         <v>2904405</v>
       </c>
     </row>
@@ -1795,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,68 +1595,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1111889</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
-        <v>1111889</v>
+        <v>4182728</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4182728</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
+++ b/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>(白用)</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>小客車TOYOTA</t>
@@ -1167,38 +1170,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1207,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -1215,13 +1239,34 @@
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>981</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
@@ -1230,13 +1275,34 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>170000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>981</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1254,13 +1320,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1275,13 +1341,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1296,13 +1362,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1317,13 +1383,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1338,13 +1404,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1359,13 +1425,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1380,13 +1446,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1413,13 +1479,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1">
         <v>98.518</v>
@@ -1428,7 +1494,7 @@
         <v>14.74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1">
         <v>42751</v>
@@ -1439,13 +1505,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>98.518</v>
@@ -1454,7 +1520,7 @@
         <v>14.74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2">
         <v>42751</v>
@@ -1465,13 +1531,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>13301.3</v>
@@ -1480,7 +1546,7 @@
         <v>4.39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2">
         <v>58393</v>
@@ -1491,13 +1557,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
         <v>44735.6</v>
@@ -1506,7 +1572,7 @@
         <v>39.18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>1752741</v>
@@ -1517,13 +1583,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>219.364</v>
@@ -1532,7 +1598,7 @@
         <v>6.59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
         <v>42559</v>
@@ -1543,13 +1609,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
         <v>1068.31</v>
@@ -1558,7 +1624,7 @@
         <v>20.56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>644217</v>
@@ -1569,13 +1635,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2">
         <v>158.78</v>
@@ -1584,7 +1650,7 @@
         <v>26.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <v>125134</v>
@@ -1595,13 +1661,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2">
         <v>2143.06</v>
@@ -1610,7 +1676,7 @@
         <v>6.35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
         <v>399135</v>
@@ -1621,13 +1687,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2">
         <v>67.54</v>
@@ -1636,7 +1702,7 @@
         <v>64.59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2">
         <v>127949</v>
@@ -1647,13 +1713,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2">
         <v>195.21</v>
@@ -1662,7 +1728,7 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2">
         <v>36309</v>
@@ -1673,13 +1739,13 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2">
         <v>195.395</v>
@@ -1688,7 +1754,7 @@
         <v>19.98</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2">
         <v>114504</v>
@@ -1699,13 +1765,13 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2">
         <v>252.63</v>
@@ -1714,7 +1780,7 @@
         <v>22.79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2">
         <v>168865</v>
@@ -1725,13 +1791,13 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2">
         <v>66.405</v>
@@ -1740,7 +1806,7 @@
         <v>77.75</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2">
         <v>152101</v>
@@ -1751,13 +1817,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2">
         <v>31.832</v>
@@ -1766,7 +1832,7 @@
         <v>175.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2">
         <v>164784</v>
@@ -1777,13 +1843,13 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2">
         <v>277.55</v>
@@ -1792,7 +1858,7 @@
         <v>20.38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2">
         <v>166639</v>
@@ -1803,13 +1869,13 @@
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2">
         <v>116.259</v>
@@ -1818,7 +1884,7 @@
         <v>20.21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2">
         <v>69218</v>
@@ -1829,13 +1895,13 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2">
         <v>201.18</v>
@@ -1844,7 +1910,7 @@
         <v>19.82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2">
         <v>117468</v>
@@ -1855,13 +1921,13 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2">
         <v>6963.9</v>
@@ -1870,7 +1936,7 @@
         <v>12.36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="2">
         <v>86073</v>
@@ -1881,13 +1947,13 @@
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2">
         <v>6462.7</v>
@@ -1896,7 +1962,7 @@
         <v>22.28</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="2">
         <v>143988</v>
@@ -1907,18 +1973,18 @@
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2">
         <v>2904405</v>
@@ -1939,22 +2005,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>1111889</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1962,22 +2028,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>1111889</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1985,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>4182728</v>
@@ -2000,7 +2066,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
+++ b/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,9 @@
     <t>(白用)</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>99年</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -871,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -924,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -977,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -1030,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -1083,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>
@@ -1136,7 +1142,7 @@
         <v>2505000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -1181,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1222,7 +1228,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1231,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -1240,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1266,7 +1272,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
@@ -1275,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -1284,7 +1290,7 @@
         <v>170000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1320,13 +1326,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1341,13 +1347,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1362,13 +1368,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1383,13 +1389,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1404,13 +1410,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1425,13 +1431,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1446,13 +1452,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1479,13 +1485,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1">
         <v>98.518</v>
@@ -1494,7 +1500,7 @@
         <v>14.74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1">
         <v>42751</v>
@@ -1505,13 +1511,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>98.518</v>
@@ -1520,7 +1526,7 @@
         <v>14.74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
         <v>42751</v>
@@ -1531,13 +1537,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2">
         <v>13301.3</v>
@@ -1546,7 +1552,7 @@
         <v>4.39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <v>58393</v>
@@ -1557,13 +1563,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="2">
         <v>44735.6</v>
@@ -1572,7 +1578,7 @@
         <v>39.18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2">
         <v>1752741</v>
@@ -1583,13 +1589,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>219.364</v>
@@ -1598,7 +1604,7 @@
         <v>6.59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
         <v>42559</v>
@@ -1609,13 +1615,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2">
         <v>1068.31</v>
@@ -1624,7 +1630,7 @@
         <v>20.56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
         <v>644217</v>
@@ -1635,13 +1641,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2">
         <v>158.78</v>
@@ -1650,7 +1656,7 @@
         <v>26.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>125134</v>
@@ -1661,13 +1667,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>2143.06</v>
@@ -1676,7 +1682,7 @@
         <v>6.35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>399135</v>
@@ -1687,13 +1693,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2">
         <v>67.54</v>
@@ -1702,7 +1708,7 @@
         <v>64.59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>127949</v>
@@ -1713,13 +1719,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2">
         <v>195.21</v>
@@ -1728,7 +1734,7 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2">
         <v>36309</v>
@@ -1739,13 +1745,13 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2">
         <v>195.395</v>
@@ -1754,7 +1760,7 @@
         <v>19.98</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
         <v>114504</v>
@@ -1765,13 +1771,13 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2">
         <v>252.63</v>
@@ -1780,7 +1786,7 @@
         <v>22.79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
         <v>168865</v>
@@ -1791,13 +1797,13 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2">
         <v>66.405</v>
@@ -1806,7 +1812,7 @@
         <v>77.75</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2">
         <v>152101</v>
@@ -1817,13 +1823,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2">
         <v>31.832</v>
@@ -1832,7 +1838,7 @@
         <v>175.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2">
         <v>164784</v>
@@ -1843,13 +1849,13 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2">
         <v>277.55</v>
@@ -1858,7 +1864,7 @@
         <v>20.38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2">
         <v>166639</v>
@@ -1869,13 +1875,13 @@
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2">
         <v>116.259</v>
@@ -1884,7 +1890,7 @@
         <v>20.21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2">
         <v>69218</v>
@@ -1895,13 +1901,13 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2">
         <v>201.18</v>
@@ -1910,7 +1916,7 @@
         <v>19.82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2">
         <v>117468</v>
@@ -1921,13 +1927,13 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2">
         <v>6963.9</v>
@@ -1936,7 +1942,7 @@
         <v>12.36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2">
         <v>86073</v>
@@ -1947,13 +1953,13 @@
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2">
         <v>6462.7</v>
@@ -1962,7 +1968,7 @@
         <v>22.28</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2">
         <v>143988</v>
@@ -1973,18 +1979,18 @@
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2">
         <v>2904405</v>
@@ -2005,22 +2011,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1">
         <v>1111889</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2028,22 +2034,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>1111889</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2051,13 +2057,13 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>4182728</v>
@@ -2066,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
+++ b/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -162,31 +162,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行雙和分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行雙和分行</t>
+  </si>
+  <si>
+    <t>美商摩根大通銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行襄陽分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行雙和分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行雙和分行</t>
-  </si>
-  <si>
-    <t>美商摩根大通銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>坦伯頓世界</t>
@@ -1318,13 +1330,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1335,139 +1347,277 @@
         <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2208108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2208108</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>981</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2208108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1927695</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>981</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>315666</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>981</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>667161</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>981</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>107566</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>981</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>189920</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>981</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
         <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6492.61</v>
-      </c>
-      <c r="G7" s="2">
-        <v>189920</v>
       </c>
     </row>
   </sheetData>
@@ -1485,13 +1635,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>98.518</v>
@@ -1500,7 +1650,7 @@
         <v>14.74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1">
         <v>42751</v>
@@ -1511,13 +1661,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>98.518</v>
@@ -1526,7 +1676,7 @@
         <v>14.74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
         <v>42751</v>
@@ -1537,13 +1687,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>13301.3</v>
@@ -1552,7 +1702,7 @@
         <v>4.39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2">
         <v>58393</v>
@@ -1563,13 +1713,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>44735.6</v>
@@ -1578,7 +1728,7 @@
         <v>39.18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>1752741</v>
@@ -1589,13 +1739,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>219.364</v>
@@ -1604,7 +1754,7 @@
         <v>6.59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>42559</v>
@@ -1615,13 +1765,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>1068.31</v>
@@ -1630,7 +1780,7 @@
         <v>20.56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>644217</v>
@@ -1641,13 +1791,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>158.78</v>
@@ -1656,7 +1806,7 @@
         <v>26.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2">
         <v>125134</v>
@@ -1667,13 +1817,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2">
         <v>2143.06</v>
@@ -1682,7 +1832,7 @@
         <v>6.35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2">
         <v>399135</v>
@@ -1693,13 +1843,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
         <v>67.54</v>
@@ -1708,7 +1858,7 @@
         <v>64.59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2">
         <v>127949</v>
@@ -1719,13 +1869,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
         <v>195.21</v>
@@ -1734,7 +1884,7 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2">
         <v>36309</v>
@@ -1745,13 +1895,13 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2">
         <v>195.395</v>
@@ -1760,7 +1910,7 @@
         <v>19.98</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2">
         <v>114504</v>
@@ -1771,13 +1921,13 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2">
         <v>252.63</v>
@@ -1786,7 +1936,7 @@
         <v>22.79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2">
         <v>168865</v>
@@ -1797,13 +1947,13 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2">
         <v>66.405</v>
@@ -1812,7 +1962,7 @@
         <v>77.75</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2">
         <v>152101</v>
@@ -1823,13 +1973,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2">
         <v>31.832</v>
@@ -1838,7 +1988,7 @@
         <v>175.72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2">
         <v>164784</v>
@@ -1849,13 +1999,13 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2">
         <v>277.55</v>
@@ -1864,7 +2014,7 @@
         <v>20.38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2">
         <v>166639</v>
@@ -1875,13 +2025,13 @@
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <v>116.259</v>
@@ -1890,7 +2040,7 @@
         <v>20.21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2">
         <v>69218</v>
@@ -1901,13 +2051,13 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2">
         <v>201.18</v>
@@ -1916,7 +2066,7 @@
         <v>19.82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H17" s="2">
         <v>117468</v>
@@ -1927,13 +2077,13 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2">
         <v>6963.9</v>
@@ -1942,7 +2092,7 @@
         <v>12.36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H18" s="2">
         <v>86073</v>
@@ -1953,13 +2103,13 @@
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2">
         <v>6462.7</v>
@@ -1968,7 +2118,7 @@
         <v>22.28</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2">
         <v>143988</v>
@@ -1979,18 +2129,18 @@
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H20" s="2">
         <v>2904405</v>
@@ -2011,22 +2161,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1">
         <v>1111889</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2034,22 +2184,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>1111889</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2057,13 +2207,13 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>4182728</v>
@@ -2072,7 +2222,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
+++ b/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -201,63 +201,72 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>坦伯頓世界</t>
   </si>
   <si>
+    <t>富邦大中華</t>
+  </si>
+  <si>
+    <t>富邦長紅</t>
+  </si>
+  <si>
+    <t>JPMF歐兀區</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>富達印度聚焦基金</t>
+  </si>
+  <si>
+    <t>貝萊德新能源基金美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金美元</t>
+  </si>
+  <si>
+    <t>貝萊德新能源基金歐元</t>
+  </si>
+  <si>
+    <t>富蘭坦頓全球債券美元</t>
+  </si>
+  <si>
+    <t>施羅德環球新興亞洲基金</t>
+  </si>
+  <si>
+    <t>富坦全球投資拉丁美洲</t>
+  </si>
+  <si>
+    <t>JF印度基金</t>
+  </si>
+  <si>
+    <t>摩根富林明新興中東基金</t>
+  </si>
+  <si>
+    <t>富達太平洋基金</t>
+  </si>
+  <si>
+    <t>國泰國泰基金</t>
+  </si>
+  <si>
+    <t>國泰科技生化基金</t>
+  </si>
+  <si>
+    <t>MutualFunds</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>富邦大中華</t>
-  </si>
-  <si>
-    <t>富邦長紅</t>
-  </si>
-  <si>
-    <t>JPMF歐兀區</t>
-  </si>
-  <si>
-    <t>富達新興市場基金</t>
-  </si>
-  <si>
-    <t>富達印度聚焦基金</t>
-  </si>
-  <si>
-    <t>貝萊德新能源基金美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業基金美元</t>
-  </si>
-  <si>
-    <t>貝萊德新能源基金歐元</t>
-  </si>
-  <si>
-    <t>富蘭坦頓全球債券美元</t>
-  </si>
-  <si>
-    <t>施羅德環球新興亞洲基金</t>
-  </si>
-  <si>
-    <t>富坦全球投資拉丁美洲</t>
-  </si>
-  <si>
-    <t>JF印度基金</t>
-  </si>
-  <si>
-    <t>摩根富林明新興中東基金</t>
-  </si>
-  <si>
-    <t>富達太平洋基金</t>
-  </si>
-  <si>
-    <t>國泰國泰基金</t>
-  </si>
-  <si>
-    <t>國泰科技生化基金</t>
-  </si>
-  <si>
-    <t>MutualFunds</t>
-  </si>
-  <si>
     <t>玉山商業銀行</t>
   </si>
   <si>
@@ -268,6 +277,9 @@
   </si>
   <si>
     <t>歐元</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>貸款</t>
@@ -1627,47 +1639,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1">
-        <v>98.518</v>
-      </c>
-      <c r="F1" s="1">
-        <v>14.74</v>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42751</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>98.518</v>
@@ -1681,19 +1714,40 @@
       <c r="H2" s="2">
         <v>42751</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>981</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>13301.3</v>
@@ -1707,19 +1761,40 @@
       <c r="H3" s="2">
         <v>58393</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>981</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>44735.6</v>
@@ -1733,19 +1808,40 @@
       <c r="H4" s="2">
         <v>1752741</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>981</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>219.364</v>
@@ -1759,19 +1855,40 @@
       <c r="H5" s="2">
         <v>42559</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>981</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>1068.31</v>
@@ -1785,19 +1902,40 @@
       <c r="H6" s="2">
         <v>644217</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>981</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>158.78</v>
@@ -1811,19 +1949,40 @@
       <c r="H7" s="2">
         <v>125134</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>981</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2">
         <v>2143.06</v>
@@ -1837,19 +1996,40 @@
       <c r="H8" s="2">
         <v>399135</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
+        <v>981</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2">
         <v>67.54</v>
@@ -1863,19 +2043,40 @@
       <c r="H9" s="2">
         <v>127949</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>981</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2">
         <v>195.21</v>
@@ -1884,24 +2085,45 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2">
         <v>36309</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2">
+        <v>981</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2">
         <v>195.395</v>
@@ -1915,19 +2137,40 @@
       <c r="H11" s="2">
         <v>114504</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2">
+        <v>981</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2">
         <v>252.63</v>
@@ -1941,19 +2184,40 @@
       <c r="H12" s="2">
         <v>168865</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2">
+        <v>981</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2">
         <v>66.405</v>
@@ -1967,19 +2231,40 @@
       <c r="H13" s="2">
         <v>152101</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2">
+        <v>981</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2">
         <v>31.832</v>
@@ -1993,19 +2278,40 @@
       <c r="H14" s="2">
         <v>164784</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2">
+        <v>981</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2">
         <v>277.55</v>
@@ -2019,19 +2325,40 @@
       <c r="H15" s="2">
         <v>166639</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2">
+        <v>981</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2">
         <v>116.259</v>
@@ -2045,19 +2372,40 @@
       <c r="H16" s="2">
         <v>69218</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2">
+        <v>981</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2">
         <v>201.18</v>
@@ -2071,19 +2419,40 @@
       <c r="H17" s="2">
         <v>117468</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2">
+        <v>981</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2">
         <v>6963.9</v>
@@ -2097,19 +2466,40 @@
       <c r="H18" s="2">
         <v>86073</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2">
+        <v>981</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2">
         <v>6462.7</v>
@@ -2123,19 +2513,40 @@
       <c r="H19" s="2">
         <v>143988</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2">
+        <v>981</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2144,6 +2555,27 @@
       </c>
       <c r="H20" s="2">
         <v>2904405</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2">
+        <v>981</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2161,7 +2593,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -2173,10 +2605,10 @@
         <v>1111889</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2184,7 +2616,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2196,10 +2628,10 @@
         <v>1111889</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2207,13 +2639,13 @@
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>4182728</v>
@@ -2222,7 +2654,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
+++ b/legislator/property/output/normal/蕭美琴_2012-04-30_財產申報表_tmpcd9a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -282,16 +282,25 @@
     <t>fund</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>貸款</t>
   </si>
   <si>
+    <t>臺灣土地銀行花蓮分行</t>
+  </si>
+  <si>
     <t>91年4月</t>
   </si>
   <si>
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>臺灣土地銀行花蓮分行</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2585,38 +2594,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1111889</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2628,18 +2658,39 @@
         <v>1111889</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>981</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2654,7 +2705,28 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>981</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
